--- a/command.xlsx
+++ b/command.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name=".main" sheetId="1" r:id="rId1"/>
     <sheet name="FightCommand" sheetId="3" r:id="rId2"/>
     <sheet name="GoodsCommand" sheetId="4" r:id="rId3"/>
     <sheet name="HeroCommand" sheetId="5" r:id="rId4"/>
-    <sheet name="SealwareCommand" sheetId="7" r:id="rId5"/>
-    <sheet name="LevelCommand" sheetId="6" r:id="rId6"/>
+    <sheet name="TestCommand" sheetId="8" r:id="rId5"/>
+    <sheet name="SealwareCommand" sheetId="7" r:id="rId6"/>
+    <sheet name="LevelCommand" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="518">
   <si>
     <t>命令配置表</t>
   </si>
@@ -1321,6 +1322,129 @@
     <t>heroid:130110007 herocolor:4 herolevel:50 heronum:1</t>
   </si>
   <si>
+    <t>{1}跳转的关卡ID</t>
+  </si>
+  <si>
+    <t>跳转到关卡1-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡1-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡1-10</t>
+  </si>
+  <si>
+    <t>跳转到关卡2-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡2-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡2-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡2-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡2-20</t>
+  </si>
+  <si>
+    <t>跳转到关卡3-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡3-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡3-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡3-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡4-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡4-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡4-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡4-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡5-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡5-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡5-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡5-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡6-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡6-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡6-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡6-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡7-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡7-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡7-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡7-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡8-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡8-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡8-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡8-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-1</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-6</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-11</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-16</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-17</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-18</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-19</t>
+  </si>
+  <si>
+    <t>跳转到关卡9-20</t>
+  </si>
+  <si>
     <t>sealwareId</t>
   </si>
   <si>
@@ -1511,129 +1635,6 @@
   </si>
   <si>
     <t>花生狀石塊</t>
-  </si>
-  <si>
-    <t>{1}跳转的关卡ID</t>
-  </si>
-  <si>
-    <t>跳转到关卡1-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡1-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡1-10</t>
-  </si>
-  <si>
-    <t>跳转到关卡2-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡2-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡2-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡2-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡2-20</t>
-  </si>
-  <si>
-    <t>跳转到关卡3-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡3-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡3-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡3-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡4-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡4-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡4-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡4-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡5-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡5-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡5-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡5-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡6-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡6-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡6-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡6-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡7-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡7-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡7-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡7-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡8-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡8-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡8-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡8-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-1</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-6</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-11</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-16</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-17</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-18</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-19</t>
-  </si>
-  <si>
-    <t>跳转到关卡9-20</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +1642,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1697,29 +1698,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,9 +1721,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1749,8 +1772,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1764,77 +1834,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,7 +1912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,7 +1936,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,67 +1984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,7 +1996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,7 +2026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,37 +2044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,11 +2097,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2120,26 +2127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2155,17 +2142,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2175,6 +2156,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2193,153 +2183,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3274,7 +3275,7 @@
   <sheetPr/>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -5542,6 +5543,508 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="34.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="34.8833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5">
+        <v>170210001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6">
+        <v>170210006</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7">
+        <v>170210010</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8">
+        <v>170210011</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9">
+        <v>170210016</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10">
+        <v>170210021</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11">
+        <v>170210026</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12">
+        <v>170210030</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13">
+        <v>170210031</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14">
+        <v>170210036</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15">
+        <v>170210041</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16">
+        <v>170210046</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17">
+        <v>170210051</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18">
+        <v>170210056</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19">
+        <v>170210061</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20">
+        <v>170210066</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21">
+        <v>170210071</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:3">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22">
+        <v>170210076</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23">
+        <v>170210081</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24">
+        <v>170210086</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25">
+        <v>170210091</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26">
+        <v>170210096</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27">
+        <v>170210101</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28">
+        <v>170210106</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29">
+        <v>170210111</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30">
+        <v>170210116</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31">
+        <v>170210121</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32">
+        <v>170210126</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33">
+        <v>170210131</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:3">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34">
+        <v>170210136</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35">
+        <v>170210141</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:3">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C36">
+        <v>170210146</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:3">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37">
+        <v>170210151</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:3">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38">
+        <v>170210156</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:3">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39">
+        <v>170210161</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:3">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40">
+        <v>170210166</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:3">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41">
+        <v>170210167</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:3">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42">
+        <v>170210168</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:3">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43">
+        <v>170210169</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:3">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>453</v>
+      </c>
+      <c r="C44">
+        <v>170210170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -5561,7 +6064,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -5590,7 +6093,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
@@ -5598,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="C5">
         <v>200110001</v>
@@ -5609,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C6">
         <v>200110002</v>
@@ -5620,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="C7">
         <v>200110003</v>
@@ -5631,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="C8">
         <v>200110004</v>
@@ -5642,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="C9">
         <v>200110005</v>
@@ -5653,7 +6156,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="C10">
         <v>200110006</v>
@@ -5664,7 +6167,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="C11">
         <v>200110007</v>
@@ -5675,7 +6178,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="C12">
         <v>200110008</v>
@@ -5686,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="C13">
         <v>200110009</v>
@@ -5697,7 +6200,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="C14">
         <v>200110010</v>
@@ -5708,7 +6211,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="C15">
         <v>200110011</v>
@@ -5719,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="C16">
         <v>200110012</v>
@@ -5730,7 +6233,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="C17">
         <v>200210001</v>
@@ -5741,7 +6244,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="C18">
         <v>200210002</v>
@@ -5752,7 +6255,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="C19">
         <v>200210003</v>
@@ -5763,7 +6266,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="C20">
         <v>200210004</v>
@@ -5774,7 +6277,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="C21">
         <v>200210005</v>
@@ -5785,7 +6288,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="C22">
         <v>200210006</v>
@@ -5796,7 +6299,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="C23">
         <v>200210007</v>
@@ -5807,7 +6310,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="C24">
         <v>200210008</v>
@@ -5818,7 +6321,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="C25">
         <v>200210009</v>
@@ -5829,7 +6332,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="C26">
         <v>200210010</v>
@@ -5840,7 +6343,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="C27">
         <v>200210011</v>
@@ -5851,7 +6354,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="C28">
         <v>200210012</v>
@@ -5862,7 +6365,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="C29">
         <v>200210013</v>
@@ -5873,7 +6376,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="C30">
         <v>200210014</v>
@@ -5884,7 +6387,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="C31">
         <v>200210015</v>
@@ -5895,7 +6398,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="C32">
         <v>200210016</v>
@@ -5906,7 +6409,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="C33">
         <v>200210017</v>
@@ -5917,7 +6420,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="C34">
         <v>200210018</v>
@@ -5928,7 +6431,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="C35">
         <v>200210019</v>
@@ -5939,7 +6442,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="C36">
         <v>200210020</v>
@@ -5950,7 +6453,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="C37">
         <v>200210021</v>
@@ -5961,7 +6464,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="C38">
         <v>200210022</v>
@@ -5972,7 +6475,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C39">
         <v>200210023</v>
@@ -5983,7 +6486,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="C40">
         <v>200210024</v>
@@ -5994,7 +6497,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="C41">
         <v>200210025</v>
@@ -6005,7 +6508,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="C42">
         <v>200210026</v>
@@ -6016,7 +6519,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="C43">
         <v>200210027</v>
@@ -6027,7 +6530,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="C44">
         <v>200210028</v>
@@ -6038,7 +6541,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="C45">
         <v>200210029</v>
@@ -6049,7 +6552,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="C46">
         <v>200210030</v>
@@ -6060,7 +6563,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="C47">
         <v>200210031</v>
@@ -6071,7 +6574,7 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="C48">
         <v>200210032</v>
@@ -6082,7 +6585,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="C49">
         <v>200210033</v>
@@ -6093,7 +6596,7 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="C50">
         <v>200210034</v>
@@ -6104,7 +6607,7 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="C51">
         <v>200210035</v>
@@ -6115,7 +6618,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="C52" s="5">
         <v>200210036</v>
@@ -6126,7 +6629,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="C53" s="5">
         <v>200210037</v>
@@ -6137,7 +6640,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C54" s="5">
         <v>200210038</v>
@@ -6148,7 +6651,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="C55" s="5">
         <v>200210039</v>
@@ -6159,7 +6662,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="C56" s="5">
         <v>200210040</v>
@@ -6170,7 +6673,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="C57" s="5">
         <v>200210041</v>
@@ -6181,7 +6684,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="C58" s="5">
         <v>200210042</v>
@@ -6192,7 +6695,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="C59" s="5">
         <v>200210043</v>
@@ -6203,7 +6706,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="C60" s="5">
         <v>200210044</v>
@@ -6214,7 +6717,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="C61" s="5">
         <v>200210045</v>
@@ -6225,7 +6728,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="C62" s="5">
         <v>200210046</v>
@@ -6236,7 +6739,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="C63" s="5">
         <v>200210047</v>
@@ -6247,7 +6750,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="C64" s="5">
         <v>200210048</v>
@@ -6258,7 +6761,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="C65" s="5">
         <v>200210049</v>
@@ -6269,7 +6772,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="C66" s="5">
         <v>200210050</v>
@@ -6281,13 +6784,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F44" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6334,7 +6837,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
@@ -6342,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="C5">
         <v>170210001</v>
@@ -6353,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="C6">
         <v>170210006</v>
@@ -6364,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="C7">
         <v>170210010</v>
@@ -6375,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="C8">
         <v>170210011</v>
@@ -6386,7 +6889,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="C9">
         <v>170210016</v>
@@ -6397,7 +6900,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="C10">
         <v>170210021</v>
@@ -6408,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="C11">
         <v>170210026</v>
@@ -6419,7 +6922,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="C12">
         <v>170210030</v>
@@ -6430,7 +6933,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="C13">
         <v>170210031</v>
@@ -6441,7 +6944,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="C14">
         <v>170210036</v>
@@ -6452,7 +6955,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="C15">
         <v>170210041</v>
@@ -6463,7 +6966,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="C16">
         <v>170210046</v>
@@ -6474,7 +6977,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="C17">
         <v>170210051</v>
@@ -6485,7 +6988,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="C18">
         <v>170210056</v>
@@ -6496,7 +6999,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="C19">
         <v>170210061</v>
@@ -6507,7 +7010,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="C20">
         <v>170210066</v>
@@ -6518,7 +7021,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="C21">
         <v>170210071</v>
@@ -6529,7 +7032,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="C22">
         <v>170210076</v>
@@ -6540,7 +7043,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="C23">
         <v>170210081</v>
@@ -6551,7 +7054,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="C24">
         <v>170210086</v>
@@ -6562,7 +7065,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="C25">
         <v>170210091</v>
@@ -6573,7 +7076,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="C26">
         <v>170210096</v>
@@ -6584,7 +7087,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="C27">
         <v>170210101</v>
@@ -6595,7 +7098,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="C28">
         <v>170210106</v>
@@ -6606,7 +7109,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="C29">
         <v>170210111</v>
@@ -6617,7 +7120,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="C30">
         <v>170210116</v>
@@ -6628,7 +7131,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="C31">
         <v>170210121</v>
@@ -6639,7 +7142,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="C32">
         <v>170210126</v>
@@ -6650,7 +7153,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="C33">
         <v>170210131</v>
@@ -6661,7 +7164,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="C34">
         <v>170210136</v>
@@ -6672,7 +7175,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="C35">
         <v>170210141</v>
@@ -6683,7 +7186,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="C36">
         <v>170210146</v>
@@ -6694,7 +7197,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="C37">
         <v>170210151</v>
@@ -6705,7 +7208,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="C38">
         <v>170210156</v>
@@ -6716,7 +7219,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="C39">
         <v>170210161</v>
@@ -6727,7 +7230,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="C40">
         <v>170210166</v>
@@ -6738,7 +7241,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="C41">
         <v>170210167</v>
@@ -6749,7 +7252,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="C42">
         <v>170210168</v>
@@ -6760,7 +7263,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="C43">
         <v>170210169</v>
@@ -6771,7 +7274,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="C44">
         <v>170210170</v>

--- a/command.xlsx
+++ b/command.xlsx
@@ -11,16 +11,17 @@
     <sheet name="FightCommand" sheetId="3" r:id="rId2"/>
     <sheet name="GoodsCommand" sheetId="4" r:id="rId3"/>
     <sheet name="HeroCommand" sheetId="5" r:id="rId4"/>
-    <sheet name="TestCommand" sheetId="8" r:id="rId5"/>
-    <sheet name="SealwareCommand" sheetId="7" r:id="rId6"/>
-    <sheet name="LevelCommand" sheetId="6" r:id="rId7"/>
+    <sheet name="TestSheet" sheetId="9" r:id="rId5"/>
+    <sheet name="TestCommand" sheetId="8" r:id="rId6"/>
+    <sheet name="SealwareCommand" sheetId="7" r:id="rId7"/>
+    <sheet name="LevelCommand" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="518">
   <si>
     <t>命令配置表</t>
   </si>
@@ -1322,6 +1323,198 @@
     <t>heroid:130110007 herocolor:4 herolevel:50 heronum:1</t>
   </si>
   <si>
+    <t>sealwareId</t>
+  </si>
+  <si>
+    <t>{1}封印物ID</t>
+  </si>
+  <si>
+    <t>克拉肯之斧</t>
+  </si>
+  <si>
+    <t>阿涅彌伊之怒</t>
+  </si>
+  <si>
+    <t>加利胡斯金號角</t>
+  </si>
+  <si>
+    <t>海拉鐮刀</t>
+  </si>
+  <si>
+    <t>海神三叉戟</t>
+  </si>
+  <si>
+    <t>潘多拉魔盒</t>
+  </si>
+  <si>
+    <t>克圖格亞之眼</t>
+  </si>
+  <si>
+    <t>巨狼雙魂</t>
+  </si>
+  <si>
+    <t>阿爾忒彌斯之弓</t>
+  </si>
+  <si>
+    <t>拉神寶球</t>
+  </si>
+  <si>
+    <t>原初之眼</t>
+  </si>
+  <si>
+    <t>永恆之槍</t>
+  </si>
+  <si>
+    <t>雷霆之盾</t>
+  </si>
+  <si>
+    <t>鮮血聖杯</t>
+  </si>
+  <si>
+    <t>佛拉格拉克</t>
+  </si>
+  <si>
+    <t>世界樹根</t>
+  </si>
+  <si>
+    <t>死靈之書</t>
+  </si>
+  <si>
+    <t>妖精之弓希爾文</t>
+  </si>
+  <si>
+    <t>龍之寶玉奧普</t>
+  </si>
+  <si>
+    <t>赫格尼之劍</t>
+  </si>
+  <si>
+    <t>烈焰之劍雷沃汀</t>
+  </si>
+  <si>
+    <t>神王雷槍</t>
+  </si>
+  <si>
+    <t>雙蛇權杖</t>
+  </si>
+  <si>
+    <t>蛇骨短劍</t>
+  </si>
+  <si>
+    <t>羊靈頭顱</t>
+  </si>
+  <si>
+    <t>方舟龍骨</t>
+  </si>
+  <si>
+    <t>巨獸犄角</t>
+  </si>
+  <si>
+    <t>鑽頭劍</t>
+  </si>
+  <si>
+    <t>伊利丹爾古</t>
+  </si>
+  <si>
+    <t>鹿靈頭骨</t>
+  </si>
+  <si>
+    <t>靈魂燈籠</t>
+  </si>
+  <si>
+    <t>末地寶珠</t>
+  </si>
+  <si>
+    <t>帶刺炎尾</t>
+  </si>
+  <si>
+    <t>胡狼頭盔</t>
+  </si>
+  <si>
+    <t>隼型頭盔</t>
+  </si>
+  <si>
+    <t>石質蛇首</t>
+  </si>
+  <si>
+    <t>神秘戒指</t>
+  </si>
+  <si>
+    <t>金質聖甲蟲</t>
+  </si>
+  <si>
+    <t>銜尾蛇戒指</t>
+  </si>
+  <si>
+    <t>懷特的髕骨</t>
+  </si>
+  <si>
+    <t>妖狐面具</t>
+  </si>
+  <si>
+    <t>血魔披風</t>
+  </si>
+  <si>
+    <t>神秘名單</t>
+  </si>
+  <si>
+    <t>渡鴉羽毛</t>
+  </si>
+  <si>
+    <t>詭異石盤</t>
+  </si>
+  <si>
+    <t>水晶頭骨</t>
+  </si>
+  <si>
+    <t>人身獅面像</t>
+  </si>
+  <si>
+    <t>海妖豎琴</t>
+  </si>
+  <si>
+    <t>賽巴的石頭</t>
+  </si>
+  <si>
+    <t>雷獸利角</t>
+  </si>
+  <si>
+    <t>魔龍毒牙</t>
+  </si>
+  <si>
+    <t>瓶裝龍息</t>
+  </si>
+  <si>
+    <t>透明蟲翅</t>
+  </si>
+  <si>
+    <t>地精戰錘</t>
+  </si>
+  <si>
+    <t>精靈短弓</t>
+  </si>
+  <si>
+    <t>捕夢網</t>
+  </si>
+  <si>
+    <t>酒館鑰匙</t>
+  </si>
+  <si>
+    <t>詭異布偶</t>
+  </si>
+  <si>
+    <t>黃金鎧甲</t>
+  </si>
+  <si>
+    <t>星座紋章</t>
+  </si>
+  <si>
+    <t>銘文石碑</t>
+  </si>
+  <si>
+    <t>花生狀石塊</t>
+  </si>
+  <si>
     <t>{1}跳转的关卡ID</t>
   </si>
   <si>
@@ -1443,198 +1636,6 @@
   </si>
   <si>
     <t>跳转到关卡9-20</t>
-  </si>
-  <si>
-    <t>sealwareId</t>
-  </si>
-  <si>
-    <t>{1}封印物ID</t>
-  </si>
-  <si>
-    <t>克拉肯之斧</t>
-  </si>
-  <si>
-    <t>阿涅彌伊之怒</t>
-  </si>
-  <si>
-    <t>加利胡斯金號角</t>
-  </si>
-  <si>
-    <t>海拉鐮刀</t>
-  </si>
-  <si>
-    <t>海神三叉戟</t>
-  </si>
-  <si>
-    <t>潘多拉魔盒</t>
-  </si>
-  <si>
-    <t>克圖格亞之眼</t>
-  </si>
-  <si>
-    <t>巨狼雙魂</t>
-  </si>
-  <si>
-    <t>阿爾忒彌斯之弓</t>
-  </si>
-  <si>
-    <t>拉神寶球</t>
-  </si>
-  <si>
-    <t>原初之眼</t>
-  </si>
-  <si>
-    <t>永恆之槍</t>
-  </si>
-  <si>
-    <t>雷霆之盾</t>
-  </si>
-  <si>
-    <t>鮮血聖杯</t>
-  </si>
-  <si>
-    <t>佛拉格拉克</t>
-  </si>
-  <si>
-    <t>世界樹根</t>
-  </si>
-  <si>
-    <t>死靈之書</t>
-  </si>
-  <si>
-    <t>妖精之弓希爾文</t>
-  </si>
-  <si>
-    <t>龍之寶玉奧普</t>
-  </si>
-  <si>
-    <t>赫格尼之劍</t>
-  </si>
-  <si>
-    <t>烈焰之劍雷沃汀</t>
-  </si>
-  <si>
-    <t>神王雷槍</t>
-  </si>
-  <si>
-    <t>雙蛇權杖</t>
-  </si>
-  <si>
-    <t>蛇骨短劍</t>
-  </si>
-  <si>
-    <t>羊靈頭顱</t>
-  </si>
-  <si>
-    <t>方舟龍骨</t>
-  </si>
-  <si>
-    <t>巨獸犄角</t>
-  </si>
-  <si>
-    <t>鑽頭劍</t>
-  </si>
-  <si>
-    <t>伊利丹爾古</t>
-  </si>
-  <si>
-    <t>鹿靈頭骨</t>
-  </si>
-  <si>
-    <t>靈魂燈籠</t>
-  </si>
-  <si>
-    <t>末地寶珠</t>
-  </si>
-  <si>
-    <t>帶刺炎尾</t>
-  </si>
-  <si>
-    <t>胡狼頭盔</t>
-  </si>
-  <si>
-    <t>隼型頭盔</t>
-  </si>
-  <si>
-    <t>石質蛇首</t>
-  </si>
-  <si>
-    <t>神秘戒指</t>
-  </si>
-  <si>
-    <t>金質聖甲蟲</t>
-  </si>
-  <si>
-    <t>銜尾蛇戒指</t>
-  </si>
-  <si>
-    <t>懷特的髕骨</t>
-  </si>
-  <si>
-    <t>妖狐面具</t>
-  </si>
-  <si>
-    <t>血魔披風</t>
-  </si>
-  <si>
-    <t>神秘名單</t>
-  </si>
-  <si>
-    <t>渡鴉羽毛</t>
-  </si>
-  <si>
-    <t>詭異石盤</t>
-  </si>
-  <si>
-    <t>水晶頭骨</t>
-  </si>
-  <si>
-    <t>人身獅面像</t>
-  </si>
-  <si>
-    <t>海妖豎琴</t>
-  </si>
-  <si>
-    <t>賽巴的石頭</t>
-  </si>
-  <si>
-    <t>雷獸利角</t>
-  </si>
-  <si>
-    <t>魔龍毒牙</t>
-  </si>
-  <si>
-    <t>瓶裝龍息</t>
-  </si>
-  <si>
-    <t>透明蟲翅</t>
-  </si>
-  <si>
-    <t>地精戰錘</t>
-  </si>
-  <si>
-    <t>精靈短弓</t>
-  </si>
-  <si>
-    <t>捕夢網</t>
-  </si>
-  <si>
-    <t>酒館鑰匙</t>
-  </si>
-  <si>
-    <t>詭異布偶</t>
-  </si>
-  <si>
-    <t>黃金鎧甲</t>
-  </si>
-  <si>
-    <t>星座紋章</t>
-  </si>
-  <si>
-    <t>銘文石碑</t>
-  </si>
-  <si>
-    <t>花生狀石塊</t>
   </si>
 </sst>
 </file>
@@ -1642,9 +1643,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1697,6 +1698,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1711,9 +1720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,14 +1729,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1742,25 +1765,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1795,19 +1812,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1818,24 +1835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1912,7 +1913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,7 +1937,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,25 +1991,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,43 +2039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,55 +2057,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,17 +2098,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2123,6 +2118,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,16 +2167,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2168,32 +2195,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2202,145 +2203,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3171,7 +3172,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -3275,7 +3276,7 @@
   <sheetPr/>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -4646,7 +4647,7 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -5543,9 +5544,748 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5">
+        <v>200110001</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6">
+        <v>200110002</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7">
+        <v>200110003</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8">
+        <v>200110004</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9">
+        <v>200110005</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10">
+        <v>200110006</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11">
+        <v>200110007</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12">
+        <v>200110008</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13">
+        <v>200110009</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14">
+        <v>200110010</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15">
+        <v>200110011</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16">
+        <v>200110012</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17">
+        <v>200210001</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18">
+        <v>200210002</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19">
+        <v>200210003</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20">
+        <v>200210004</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21">
+        <v>200210005</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:3">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22">
+        <v>200210006</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23">
+        <v>200210007</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24">
+        <v>200210008</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25">
+        <v>200210009</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26">
+        <v>200210010</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27">
+        <v>200210011</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28">
+        <v>200210012</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29">
+        <v>200210013</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30">
+        <v>200210014</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31">
+        <v>200210015</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32">
+        <v>200210016</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33">
+        <v>200210017</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:3">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34">
+        <v>200210018</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35">
+        <v>200210019</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:3">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36">
+        <v>200210020</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:3">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37">
+        <v>200210021</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:3">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38">
+        <v>200210022</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:3">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>449</v>
+      </c>
+      <c r="C39">
+        <v>200210023</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:3">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40">
+        <v>200210024</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:3">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41">
+        <v>200210025</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:3">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42">
+        <v>200210026</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:3">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43">
+        <v>200210027</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:3">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44">
+        <v>200210028</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:3">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45">
+        <v>200210029</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:3">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C46">
+        <v>200210030</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:3">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>457</v>
+      </c>
+      <c r="C47">
+        <v>200210031</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:3">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>458</v>
+      </c>
+      <c r="C48">
+        <v>200210032</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:3">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49">
+        <v>200210033</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:3">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>460</v>
+      </c>
+      <c r="C50">
+        <v>200210034</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:3">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>461</v>
+      </c>
+      <c r="C51">
+        <v>200210035</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:3">
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" s="5">
+        <v>200210036</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:3">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" s="5">
+        <v>200210037</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:3">
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="5">
+        <v>200210038</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:3">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="5">
+        <v>200210039</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:3">
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" s="5">
+        <v>200210040</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:3">
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="5">
+        <v>200210041</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:3">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="5">
+        <v>200210042</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:3">
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C59" s="5">
+        <v>200210043</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:3">
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="5">
+        <v>200210044</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:3">
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C61" s="5">
+        <v>200210045</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:3">
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="5">
+        <v>200210046</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:3">
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" s="5">
+        <v>200210047</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:3">
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C64" s="5">
+        <v>200210048</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:3">
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" s="5">
+        <v>200210049</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:3">
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C66" s="5">
+        <v>200210050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -5593,7 +6333,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
@@ -5601,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="C5">
         <v>170210001</v>
@@ -5612,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="C6">
         <v>170210006</v>
@@ -5623,7 +6363,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="C7">
         <v>170210010</v>
@@ -5634,7 +6374,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="C8">
         <v>170210011</v>
@@ -5645,7 +6385,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="C9">
         <v>170210016</v>
@@ -5656,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="C10">
         <v>170210021</v>
@@ -5667,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="C11">
         <v>170210026</v>
@@ -5678,7 +6418,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="C12">
         <v>170210030</v>
@@ -5689,7 +6429,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="C13">
         <v>170210031</v>
@@ -5700,7 +6440,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C14">
         <v>170210036</v>
@@ -5711,7 +6451,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="C15">
         <v>170210041</v>
@@ -5722,7 +6462,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="C16">
         <v>170210046</v>
@@ -5733,7 +6473,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="C17">
         <v>170210051</v>
@@ -5744,7 +6484,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="C18">
         <v>170210056</v>
@@ -5755,7 +6495,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="C19">
         <v>170210061</v>
@@ -5766,7 +6506,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="C20">
         <v>170210066</v>
@@ -5777,7 +6517,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="C21">
         <v>170210071</v>
@@ -5788,7 +6528,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="C22">
         <v>170210076</v>
@@ -5799,7 +6539,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="C23">
         <v>170210081</v>
@@ -5810,7 +6550,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="C24">
         <v>170210086</v>
@@ -5821,7 +6561,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="C25">
         <v>170210091</v>
@@ -5832,7 +6572,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="C26">
         <v>170210096</v>
@@ -5843,7 +6583,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="C27">
         <v>170210101</v>
@@ -5854,7 +6594,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="C28">
         <v>170210106</v>
@@ -5865,7 +6605,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="C29">
         <v>170210111</v>
@@ -5876,7 +6616,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="C30">
         <v>170210116</v>
@@ -5887,7 +6627,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="C31">
         <v>170210121</v>
@@ -5898,7 +6638,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="C32">
         <v>170210126</v>
@@ -5909,7 +6649,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="C33">
         <v>170210131</v>
@@ -5920,7 +6660,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="C34">
         <v>170210136</v>
@@ -5931,7 +6671,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="C35">
         <v>170210141</v>
@@ -5942,7 +6682,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="C36">
         <v>170210146</v>
@@ -5953,7 +6693,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="C37">
         <v>170210151</v>
@@ -5964,7 +6704,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="C38">
         <v>170210156</v>
@@ -5975,7 +6715,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="C39">
         <v>170210161</v>
@@ -5986,7 +6726,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="C40">
         <v>170210166</v>
@@ -5997,7 +6737,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="C41">
         <v>170210167</v>
@@ -6008,7 +6748,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="C42">
         <v>170210168</v>
@@ -6019,7 +6759,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="C43">
         <v>170210169</v>
@@ -6030,7 +6770,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C44">
         <v>170210170</v>
@@ -6042,13 +6782,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="A1:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.25" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6064,7 +6804,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
@@ -6093,7 +6833,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
@@ -6101,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="C5">
         <v>200110001</v>
@@ -6112,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="C6">
         <v>200110002</v>
@@ -6123,7 +6863,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="C7">
         <v>200110003</v>
@@ -6134,7 +6874,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="C8">
         <v>200110004</v>
@@ -6145,7 +6885,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="C9">
         <v>200110005</v>
@@ -6156,7 +6896,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="C10">
         <v>200110006</v>
@@ -6167,7 +6907,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C11">
         <v>200110007</v>
@@ -6178,7 +6918,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="C12">
         <v>200110008</v>
@@ -6189,7 +6929,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="C13">
         <v>200110009</v>
@@ -6200,7 +6940,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="C14">
         <v>200110010</v>
@@ -6211,7 +6951,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="C15">
         <v>200110011</v>
@@ -6222,7 +6962,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="C16">
         <v>200110012</v>
@@ -6233,7 +6973,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="C17">
         <v>200210001</v>
@@ -6244,7 +6984,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="C18">
         <v>200210002</v>
@@ -6255,7 +6995,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="C19">
         <v>200210003</v>
@@ -6266,7 +7006,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="C20">
         <v>200210004</v>
@@ -6277,7 +7017,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="C21">
         <v>200210005</v>
@@ -6288,7 +7028,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="C22">
         <v>200210006</v>
@@ -6299,7 +7039,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="C23">
         <v>200210007</v>
@@ -6310,7 +7050,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="C24">
         <v>200210008</v>
@@ -6321,7 +7061,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="C25">
         <v>200210009</v>
@@ -6332,7 +7072,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="C26">
         <v>200210010</v>
@@ -6343,7 +7083,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="C27">
         <v>200210011</v>
@@ -6354,7 +7094,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="C28">
         <v>200210012</v>
@@ -6365,7 +7105,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="C29">
         <v>200210013</v>
@@ -6376,7 +7116,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="C30">
         <v>200210014</v>
@@ -6387,7 +7127,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="C31">
         <v>200210015</v>
@@ -6398,7 +7138,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="C32">
         <v>200210016</v>
@@ -6409,7 +7149,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="C33">
         <v>200210017</v>
@@ -6420,7 +7160,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="C34">
         <v>200210018</v>
@@ -6431,7 +7171,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="C35">
         <v>200210019</v>
@@ -6442,7 +7182,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C36">
         <v>200210020</v>
@@ -6453,7 +7193,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="C37">
         <v>200210021</v>
@@ -6464,7 +7204,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="C38">
         <v>200210022</v>
@@ -6475,7 +7215,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="C39">
         <v>200210023</v>
@@ -6486,7 +7226,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="C40">
         <v>200210024</v>
@@ -6497,7 +7237,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="C41">
         <v>200210025</v>
@@ -6508,7 +7248,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="C42">
         <v>200210026</v>
@@ -6519,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="C43">
         <v>200210027</v>
@@ -6530,7 +7270,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C44">
         <v>200210028</v>
@@ -6541,7 +7281,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="C45">
         <v>200210029</v>
@@ -6552,7 +7292,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="C46">
         <v>200210030</v>
@@ -6563,7 +7303,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="C47">
         <v>200210031</v>
@@ -6574,7 +7314,7 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="C48">
         <v>200210032</v>
@@ -6585,7 +7325,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="C49">
         <v>200210033</v>
@@ -6596,7 +7336,7 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="C50">
         <v>200210034</v>
@@ -6607,7 +7347,7 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="C51">
         <v>200210035</v>
@@ -6618,7 +7358,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="C52" s="5">
         <v>200210036</v>
@@ -6629,7 +7369,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="C53" s="5">
         <v>200210037</v>
@@ -6640,7 +7380,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C54" s="5">
         <v>200210038</v>
@@ -6651,7 +7391,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="C55" s="5">
         <v>200210039</v>
@@ -6662,7 +7402,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="C56" s="5">
         <v>200210040</v>
@@ -6673,7 +7413,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="C57" s="5">
         <v>200210041</v>
@@ -6684,7 +7424,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C58" s="5">
         <v>200210042</v>
@@ -6695,7 +7435,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="C59" s="5">
         <v>200210043</v>
@@ -6706,7 +7446,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="C60" s="5">
         <v>200210044</v>
@@ -6717,7 +7457,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="C61" s="5">
         <v>200210045</v>
@@ -6728,7 +7468,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="C62" s="5">
         <v>200210046</v>
@@ -6739,7 +7479,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="C63" s="5">
         <v>200210047</v>
@@ -6750,7 +7490,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="C64" s="5">
         <v>200210048</v>
@@ -6761,7 +7501,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="C65" s="5">
         <v>200210049</v>
@@ -6772,7 +7512,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>517</v>
+        <v>476</v>
       </c>
       <c r="C66" s="5">
         <v>200210050</v>
@@ -6784,13 +7524,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6837,7 +7577,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
@@ -6845,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="C5">
         <v>170210001</v>
@@ -6856,7 +7596,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="C6">
         <v>170210006</v>
@@ -6867,7 +7607,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="C7">
         <v>170210010</v>
@@ -6878,7 +7618,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="C8">
         <v>170210011</v>
@@ -6889,7 +7629,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="C9">
         <v>170210016</v>
@@ -6900,7 +7640,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="C10">
         <v>170210021</v>
@@ -6911,7 +7651,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="C11">
         <v>170210026</v>
@@ -6922,7 +7662,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="C12">
         <v>170210030</v>
@@ -6933,7 +7673,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="C13">
         <v>170210031</v>
@@ -6944,7 +7684,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="C14">
         <v>170210036</v>
@@ -6955,7 +7695,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="C15">
         <v>170210041</v>
@@ -6966,7 +7706,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="C16">
         <v>170210046</v>
@@ -6977,7 +7717,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="C17">
         <v>170210051</v>
@@ -6988,7 +7728,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="C18">
         <v>170210056</v>
@@ -6999,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="C19">
         <v>170210061</v>
@@ -7010,7 +7750,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="C20">
         <v>170210066</v>
@@ -7021,7 +7761,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="C21">
         <v>170210071</v>
@@ -7032,7 +7772,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="C22">
         <v>170210076</v>
@@ -7043,7 +7783,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="C23">
         <v>170210081</v>
@@ -7054,7 +7794,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="C24">
         <v>170210086</v>
@@ -7065,7 +7805,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="C25">
         <v>170210091</v>
@@ -7076,7 +7816,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="C26">
         <v>170210096</v>
@@ -7087,7 +7827,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="C27">
         <v>170210101</v>
@@ -7098,7 +7838,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="C28">
         <v>170210106</v>
@@ -7109,7 +7849,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="C29">
         <v>170210111</v>
@@ -7120,7 +7860,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="C30">
         <v>170210116</v>
@@ -7131,7 +7871,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="C31">
         <v>170210121</v>
@@ -7142,7 +7882,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="C32">
         <v>170210126</v>
@@ -7153,7 +7893,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="C33">
         <v>170210131</v>
@@ -7164,7 +7904,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="C34">
         <v>170210136</v>
@@ -7175,7 +7915,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="C35">
         <v>170210141</v>
@@ -7186,7 +7926,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="C36">
         <v>170210146</v>
@@ -7197,7 +7937,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="C37">
         <v>170210151</v>
@@ -7208,7 +7948,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="C38">
         <v>170210156</v>
@@ -7219,7 +7959,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="C39">
         <v>170210161</v>
@@ -7230,7 +7970,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="C40">
         <v>170210166</v>
@@ -7241,7 +7981,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="C41">
         <v>170210167</v>
@@ -7252,7 +7992,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="C42">
         <v>170210168</v>
@@ -7263,7 +8003,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="C43">
         <v>170210169</v>
@@ -7274,7 +8014,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C44">
         <v>170210170</v>

--- a/command.xlsx
+++ b/command.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="13500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name=".main" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="TestCommand" sheetId="8" r:id="rId6"/>
     <sheet name="SealwareCommand" sheetId="7" r:id="rId7"/>
     <sheet name="LevelCommand" sheetId="6" r:id="rId8"/>
+    <sheet name="TestCommand2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="518">
   <si>
     <t>命令配置表</t>
   </si>
@@ -1643,10 +1644,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1698,21 +1699,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1735,14 +1721,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1751,15 +1729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1770,14 +1740,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1821,6 +1783,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1828,8 +1813,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1919,43 +1920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1967,13 +1938,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,73 +2004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,6 +2017,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,15 +2095,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2133,21 +2125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2159,6 +2136,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2195,161 +2181,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2358,6 +2356,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2761,24 +2762,24 @@
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="24" t="s">
@@ -2790,8 +2791,8 @@
       <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A5" s="24" t="s">
@@ -2803,22 +2804,22 @@
       <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A8" s="27" t="s">
@@ -2827,9 +2828,9 @@
       <c r="B8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A9" s="27" t="s">
@@ -2838,9 +2839,9 @@
       <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="27" t="s">
@@ -2849,9 +2850,9 @@
       <c r="B10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A11" s="27" t="s">
@@ -2860,23 +2861,23 @@
       <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" s="9" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" s="9" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="28" t="s">
@@ -3182,42 +3183,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4658,41 +4659,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5546,54 +5547,54 @@
   <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N32" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -5604,7 +5605,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -5615,7 +5616,7 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -5626,7 +5627,7 @@
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -5637,7 +5638,7 @@
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -5648,7 +5649,7 @@
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -5659,7 +5660,7 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -5670,7 +5671,7 @@
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -5681,7 +5682,7 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -5692,7 +5693,7 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -5703,7 +5704,7 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -5714,7 +5715,7 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -5725,7 +5726,7 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -5736,7 +5737,7 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -5747,7 +5748,7 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -5758,7 +5759,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -5769,7 +5770,7 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -5780,7 +5781,7 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -5791,7 +5792,7 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -5802,7 +5803,7 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -5813,7 +5814,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -5824,7 +5825,7 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -5835,7 +5836,7 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -5846,7 +5847,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -5857,7 +5858,7 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" t="s">
@@ -5868,7 +5869,7 @@
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" t="s">
@@ -5879,7 +5880,7 @@
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -5890,7 +5891,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" t="s">
@@ -5901,7 +5902,7 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" t="s">
@@ -5912,7 +5913,7 @@
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" t="s">
@@ -5923,7 +5924,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -5934,7 +5935,7 @@
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" t="s">
@@ -5945,7 +5946,7 @@
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -5956,7 +5957,7 @@
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" t="s">
@@ -5967,7 +5968,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" t="s">
@@ -5978,7 +5979,7 @@
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" t="s">
@@ -5989,7 +5990,7 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" t="s">
@@ -6000,7 +6001,7 @@
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" t="s">
@@ -6011,7 +6012,7 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" t="s">
@@ -6022,7 +6023,7 @@
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" t="s">
@@ -6033,7 +6034,7 @@
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" t="s">
@@ -6044,7 +6045,7 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" t="s">
@@ -6055,7 +6056,7 @@
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" t="s">
@@ -6066,7 +6067,7 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" t="s">
@@ -6077,7 +6078,7 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" t="s">
@@ -6088,7 +6089,7 @@
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" t="s">
@@ -6099,7 +6100,7 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" t="s">
@@ -6110,167 +6111,167 @@
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:3">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>200210036</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>200210037</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:3">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>200210038</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>200210039</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:3">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>200210040</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>200210041</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>200210042</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>200210043</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:3">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>200210044</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>200210045</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:3">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>200210046</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>200210047</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>200210048</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>200210049</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:3">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>200210050</v>
       </c>
     </row>
@@ -6297,47 +6298,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A5" s="4">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -6348,7 +6349,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -6359,7 +6360,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -6370,7 +6371,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -6381,7 +6382,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -6392,7 +6393,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -6403,7 +6404,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -6414,7 +6415,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -6425,7 +6426,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -6436,7 +6437,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -6447,7 +6448,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -6458,7 +6459,7 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -6469,7 +6470,7 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -6480,7 +6481,7 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -6491,7 +6492,7 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -6502,7 +6503,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -6513,7 +6514,7 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -6524,7 +6525,7 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -6535,7 +6536,7 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -6546,7 +6547,7 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -6557,7 +6558,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -6568,7 +6569,7 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -6579,7 +6580,7 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -6590,7 +6591,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -6601,7 +6602,7 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" t="s">
@@ -6612,7 +6613,7 @@
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" t="s">
@@ -6623,7 +6624,7 @@
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -6634,7 +6635,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" t="s">
@@ -6645,7 +6646,7 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" t="s">
@@ -6656,7 +6657,7 @@
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" t="s">
@@ -6667,7 +6668,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -6678,7 +6679,7 @@
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" t="s">
@@ -6689,7 +6690,7 @@
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -6700,7 +6701,7 @@
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" t="s">
@@ -6711,7 +6712,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" t="s">
@@ -6722,7 +6723,7 @@
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" t="s">
@@ -6733,7 +6734,7 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" t="s">
@@ -6744,7 +6745,7 @@
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" t="s">
@@ -6755,7 +6756,7 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" t="s">
@@ -6766,7 +6767,7 @@
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" t="s">
@@ -6797,47 +6798,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A5" s="4">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -6848,7 +6849,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -6859,7 +6860,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -6870,7 +6871,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -6881,7 +6882,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -6892,7 +6893,7 @@
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -6903,7 +6904,7 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -6914,7 +6915,7 @@
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -6925,7 +6926,7 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -6936,7 +6937,7 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -6947,7 +6948,7 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -6958,7 +6959,7 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -6969,7 +6970,7 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -6980,7 +6981,7 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -6991,7 +6992,7 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -7002,7 +7003,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -7013,7 +7014,7 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -7024,7 +7025,7 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -7035,7 +7036,7 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -7046,7 +7047,7 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -7057,7 +7058,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -7068,7 +7069,7 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -7079,7 +7080,7 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -7090,7 +7091,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -7101,7 +7102,7 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" t="s">
@@ -7112,7 +7113,7 @@
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" t="s">
@@ -7123,7 +7124,7 @@
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -7134,7 +7135,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" t="s">
@@ -7145,7 +7146,7 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" t="s">
@@ -7156,7 +7157,7 @@
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" t="s">
@@ -7167,7 +7168,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -7178,7 +7179,7 @@
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" t="s">
@@ -7189,7 +7190,7 @@
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -7200,7 +7201,7 @@
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" t="s">
@@ -7211,7 +7212,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" t="s">
@@ -7222,7 +7223,7 @@
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" t="s">
@@ -7233,7 +7234,7 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" t="s">
@@ -7244,7 +7245,7 @@
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" t="s">
@@ -7255,7 +7256,7 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" t="s">
@@ -7266,7 +7267,7 @@
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" t="s">
@@ -7277,7 +7278,7 @@
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" t="s">
@@ -7288,7 +7289,7 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" t="s">
@@ -7299,7 +7300,7 @@
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" t="s">
@@ -7310,7 +7311,7 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" t="s">
@@ -7321,7 +7322,7 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" t="s">
@@ -7332,7 +7333,7 @@
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" t="s">
@@ -7343,7 +7344,7 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" t="s">
@@ -7354,167 +7355,167 @@
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:3">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>200210036</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>200210037</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:3">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>200210038</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>200210039</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:3">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>52</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>200210040</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>200210041</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>200210042</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>200210043</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:3">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>200210044</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>200210045</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:3">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>200210046</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>200210047</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>200210048</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>200210049</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:3">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>200210050</v>
       </c>
     </row>
@@ -7541,47 +7542,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A5" s="4">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -7592,7 +7593,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -7603,7 +7604,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -7614,7 +7615,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -7625,7 +7626,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -7636,7 +7637,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -7647,7 +7648,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -7658,7 +7659,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -7669,7 +7670,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -7680,7 +7681,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -7691,7 +7692,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -7702,7 +7703,7 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -7713,7 +7714,7 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -7724,7 +7725,7 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -7735,7 +7736,7 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -7746,7 +7747,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -7757,7 +7758,7 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -7768,7 +7769,7 @@
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -7779,7 +7780,7 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -7790,7 +7791,7 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -7801,7 +7802,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -7812,7 +7813,7 @@
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -7823,7 +7824,7 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -7834,7 +7835,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -7845,7 +7846,7 @@
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" t="s">
@@ -7856,7 +7857,7 @@
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" t="s">
@@ -7867,7 +7868,7 @@
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -7878,7 +7879,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" t="s">
@@ -7889,7 +7890,7 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" t="s">
@@ -7900,7 +7901,7 @@
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" t="s">
@@ -7911,7 +7912,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -7922,7 +7923,7 @@
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" t="s">
@@ -7933,7 +7934,7 @@
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" t="s">
@@ -7944,7 +7945,7 @@
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" t="s">
@@ -7955,7 +7956,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" t="s">
@@ -7966,7 +7967,7 @@
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" t="s">
@@ -7977,7 +7978,7 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" t="s">
@@ -7988,7 +7989,7 @@
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" t="s">
@@ -7999,7 +8000,7 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" t="s">
@@ -8010,7 +8011,7 @@
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" t="s">
@@ -8018,6 +8019,745 @@
       </c>
       <c r="C44">
         <v>170210170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5">
+        <v>200110001</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6">
+        <v>200110002</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7">
+        <v>200110003</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8">
+        <v>200110004</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9">
+        <v>200110005</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:3">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10">
+        <v>200110006</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:3">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11">
+        <v>200110007</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12">
+        <v>200110008</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13">
+        <v>200110009</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14">
+        <v>200110010</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15">
+        <v>200110011</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16">
+        <v>200110012</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17">
+        <v>200210001</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18">
+        <v>200210002</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19">
+        <v>200210003</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20">
+        <v>200210004</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21">
+        <v>200210005</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:3">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22">
+        <v>200210006</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23">
+        <v>200210007</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24">
+        <v>200210008</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25">
+        <v>200210009</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26">
+        <v>200210010</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27">
+        <v>200210011</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28">
+        <v>200210012</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29">
+        <v>200210013</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30">
+        <v>200210014</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31">
+        <v>200210015</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" s="3">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32">
+        <v>200210016</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33">
+        <v>200210017</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:3">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34">
+        <v>200210018</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35">
+        <v>200210019</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:3">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36">
+        <v>200210020</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:3">
+      <c r="A37" s="3">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37">
+        <v>200210021</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:3">
+      <c r="A38" s="3">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38">
+        <v>200210022</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:3">
+      <c r="A39" s="3">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>449</v>
+      </c>
+      <c r="C39">
+        <v>200210023</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:3">
+      <c r="A40" s="3">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40">
+        <v>200210024</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:3">
+      <c r="A41" s="3">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41">
+        <v>200210025</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:3">
+      <c r="A42" s="3">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42">
+        <v>200210026</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:3">
+      <c r="A43" s="3">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43">
+        <v>200210027</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:3">
+      <c r="A44" s="3">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44">
+        <v>200210028</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:3">
+      <c r="A45" s="3">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45">
+        <v>200210029</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:3">
+      <c r="A46" s="3">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C46">
+        <v>200210030</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:3">
+      <c r="A47" s="3">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>457</v>
+      </c>
+      <c r="C47">
+        <v>200210031</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:3">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>458</v>
+      </c>
+      <c r="C48">
+        <v>200210032</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:3">
+      <c r="A49" s="3">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49">
+        <v>200210033</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:3">
+      <c r="A50" s="3">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>460</v>
+      </c>
+      <c r="C50">
+        <v>200210034</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:3">
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>461</v>
+      </c>
+      <c r="C51">
+        <v>200210035</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:3">
+      <c r="A52" s="3">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" s="4">
+        <v>200210036</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:3">
+      <c r="A53" s="3">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C53" s="4">
+        <v>200210037</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:3">
+      <c r="A54" s="3">
+        <v>50</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="4">
+        <v>200210038</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:3">
+      <c r="A55" s="3">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="4">
+        <v>200210039</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:3">
+      <c r="A56" s="3">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" s="4">
+        <v>200210040</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:3">
+      <c r="A57" s="3">
+        <v>53</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="4">
+        <v>200210041</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:3">
+      <c r="A58" s="3">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="4">
+        <v>200210042</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:3">
+      <c r="A59" s="3">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C59" s="4">
+        <v>200210043</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:3">
+      <c r="A60" s="3">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="4">
+        <v>200210044</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:3">
+      <c r="A61" s="3">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C61" s="4">
+        <v>200210045</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:3">
+      <c r="A62" s="3">
+        <v>58</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="4">
+        <v>200210046</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:3">
+      <c r="A63" s="3">
+        <v>59</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" s="4">
+        <v>200210047</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:3">
+      <c r="A64" s="3">
+        <v>60</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C64" s="4">
+        <v>200210048</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:3">
+      <c r="A65" s="3">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" s="4">
+        <v>200210049</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:3">
+      <c r="A66" s="3">
+        <v>62</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C66" s="4">
+        <v>200210050</v>
       </c>
     </row>
   </sheetData>

--- a/command.xlsx
+++ b/command.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=".main" sheetId="1" r:id="rId1"/>
@@ -1644,8 +1644,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1699,10 +1699,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1728,18 +1758,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1751,26 +1774,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1798,13 +1805,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1821,16 +1821,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1914,7 +1914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,7 +1932,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,13 +1980,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,90 +2064,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2053,24 +2071,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,15 +2173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2196,18 +2187,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2216,133 +2216,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3172,8 +3172,8 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -3277,7 +3277,7 @@
   <sheetPr/>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -4648,7 +4648,7 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -8032,7 +8032,7 @@
   <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
